--- a/Transition_Training_Variables.xlsx
+++ b/Transition_Training_Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/ds04081_konkuk_ac_kr/Documents/Teams/RL/이영재/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeongseok\Desktop\github\KADA-UAM-RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="792" documentId="8_{7E712A3D-2900-4CE7-908C-360144A7D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C0BC0D-CF0C-408A-AF07-451F70D83BAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD39C57-F937-4669-A1CE-F648B9F3528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2A74E826-1E88-4B11-878F-1D515638B210}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A74E826-1E88-4B11-878F-1D515638B210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14270,8 +14270,8 @@
   <dimension ref="B1:Y91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
